--- a/dcb_sum.xlsx
+++ b/dcb_sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9155" firstSheet="4" activeTab="7"/>
+    <workbookView windowWidth="11520" windowHeight="9155"/>
   </bookViews>
   <sheets>
     <sheet name="Fre" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="14">
   <si>
     <t>a1</t>
   </si>
@@ -38,10 +38,31 @@
     <t>a5</t>
   </si>
   <si>
+    <t>a6</t>
+  </si>
+  <si>
     <t>b1</t>
   </si>
   <si>
-    <t>a6</t>
+    <t>-.-'</t>
+  </si>
+  <si>
+    <t>--.'</t>
+  </si>
+  <si>
+    <t>10\9</t>
+  </si>
+  <si>
+    <t>5\4</t>
+  </si>
+  <si>
+    <t>8\9</t>
+  </si>
+  <si>
+    <t>16\17</t>
+  </si>
+  <si>
+    <t>32\33</t>
   </si>
 </sst>
 </file>
@@ -54,7 +75,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,23 +85,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,6 +107,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -109,22 +198,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,84 +227,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,187 +237,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,22 +447,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,9 +469,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,18 +497,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,173 +540,167 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1016,14 +1051,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>20050</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1033,36 +1083,72 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <cols>
+    <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="3.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
+    <col min="5" max="7" width="3.66666666666667" customWidth="1"/>
+    <col min="8" max="9" width="5.66666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" t="s">
+    <row r="1" spans="3:9">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
+        <v>20050</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
         <v>20051</v>
       </c>
     </row>
@@ -1076,13 +1162,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="6.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
@@ -1090,7 +1176,7 @@
     <col min="9" max="9" width="2.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8">
+    <row r="1" spans="3:9">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1109,33 +1195,65 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
+        <v>200050</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>20051</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>17</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>27</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>30</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>3</v>
       </c>
     </row>
@@ -1149,13 +1267,118 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="6.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="3.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
+    <col min="5" max="9" width="3.66666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>20050</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>20051</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="6.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
@@ -1179,112 +1402,67 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
+        <v>20050</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>20051</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>19</v>
-      </c>
-      <c r="G2">
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="H2">
-        <v>27</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="6.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
-    <col min="3" max="9" width="3.66666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:9">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>20051</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
+      <c r="H3">
         <v>25</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>7</v>
       </c>
     </row>
@@ -1297,13 +1475,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="9" width="3.66666666666667" customWidth="1"/>
@@ -1326,38 +1504,67 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
+        <v>20050</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>20051</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>12</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>19</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>26</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>28</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>9</v>
       </c>
     </row>
@@ -1370,16 +1577,20 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
-    <col min="3" max="9" width="3.66666666666667" customWidth="1"/>
+    <col min="3" max="4" width="3.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="6.66666666666667" customWidth="1"/>
+    <col min="6" max="7" width="3.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="6.66666666666667" customWidth="1"/>
+    <col min="9" max="9" width="3.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9">
@@ -1399,38 +1610,67 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>20051</v>
+        <v>20050</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>20051</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>17</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>19</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>25</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>25</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>15</v>
       </c>
     </row>
@@ -1443,13 +1683,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
     <col min="3" max="9" width="3.66666666666667" customWidth="1"/>
@@ -1472,38 +1712,67 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
+        <v>20050</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>20051</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>27</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>29</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>6</v>
       </c>
     </row>

--- a/dcb_sum.xlsx
+++ b/dcb_sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9155"/>
+    <workbookView windowWidth="11520" windowHeight="9155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fre" sheetId="1" r:id="rId1"/>
@@ -71,8 +71,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -85,7 +85,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,14 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -114,119 +227,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -249,13 +249,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,79 +381,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,85 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,41 +440,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,16 +462,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +482,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -540,6 +531,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,16 +560,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,115 +578,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,8 +1053,8 @@
   <sheetPr/>
   <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1162,13 +1162,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="6.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="2.66666666666667" customWidth="1"/>
@@ -1255,6 +1255,35 @@
       </c>
       <c r="I3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>20052</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
